--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48531730805\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48531730805\Desktop\Banco de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94160F11-BC3B-4358-B658-47FDD8A1892E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C452EB-6679-4BBD-871A-39628B41D9A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7D39A567-F0C6-4A5A-9744-B25ADC960472}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Empresa</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>ID_Aluguel</t>
+  </si>
+  <si>
+    <t>Data/Hora</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +167,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -204,12 +243,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFCC3399"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -521,10 +576,13 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -548,106 +606,114 @@
       <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="13">
         <v>100</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="12">
         <v>40</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <v>9877</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <v>41</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="12">
         <v>6776</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="8">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <v>42</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="12">
         <v>3456</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="8">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="8">
         <v>12</v>
       </c>
     </row>
@@ -672,106 +738,118 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
+      <c r="J10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14">
         <v>12324324</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <v>56</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="10">
         <v>199</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="10">
         <v>56</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="10">
         <v>41</v>
       </c>
-      <c r="L11">
+      <c r="J11" s="11">
+        <v>43796.5625</v>
+      </c>
+      <c r="L11" s="9">
         <v>10</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="14">
         <v>4345345</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="14">
         <v>57</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="10">
         <v>200</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="10">
         <v>57</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="10">
         <v>40</v>
       </c>
-      <c r="L12">
+      <c r="J12" s="11">
+        <v>44116.729166666664</v>
+      </c>
+      <c r="L12" s="9">
         <v>11</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14">
         <v>554545</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="14">
         <v>58</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="10">
         <v>2001</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="10">
         <v>58</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="10">
         <v>42</v>
       </c>
-      <c r="L13">
+      <c r="J13" s="11">
+        <v>43507.6875</v>
+      </c>
+      <c r="L13" s="9">
         <v>12</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="9" t="s">
         <v>5</v>
       </c>
     </row>
